--- a/data/pca/factorExposure/factorExposure_2019-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.127424695314439</v>
+        <v>0.07729789400454079</v>
       </c>
       <c r="C2">
-        <v>0.01460456067900671</v>
+        <v>-0.02110013619909885</v>
       </c>
       <c r="D2">
-        <v>-0.04089732580714677</v>
+        <v>-0.04322080096223536</v>
       </c>
       <c r="E2">
-        <v>-0.0947205785691088</v>
+        <v>-0.04376631385170496</v>
       </c>
       <c r="F2">
-        <v>-0.1000097029237845</v>
+        <v>-0.1339195184345504</v>
       </c>
       <c r="G2">
-        <v>0.1282802191138101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09076887723771192</v>
+      </c>
+      <c r="H2">
+        <v>-0.09045518920066235</v>
+      </c>
+      <c r="I2">
+        <v>-0.0253130688790655</v>
+      </c>
+      <c r="J2">
+        <v>-0.04481549213768733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2107027418743127</v>
+        <v>0.1557325763782547</v>
       </c>
       <c r="C3">
-        <v>-0.09339291816204645</v>
+        <v>-0.08879859374051652</v>
       </c>
       <c r="D3">
-        <v>0.01486340965661907</v>
+        <v>0.03491134100605594</v>
       </c>
       <c r="E3">
-        <v>-0.3279050958934425</v>
+        <v>-0.05111107948055039</v>
       </c>
       <c r="F3">
-        <v>-0.0252115245502042</v>
+        <v>-0.3789590291050122</v>
       </c>
       <c r="G3">
-        <v>0.3569852395153814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01008487156488982</v>
+      </c>
+      <c r="H3">
+        <v>-0.2881378649099491</v>
+      </c>
+      <c r="I3">
+        <v>-0.1684811488072873</v>
+      </c>
+      <c r="J3">
+        <v>-0.3900088681138929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09712218800994848</v>
+        <v>0.07176627064404882</v>
       </c>
       <c r="C4">
-        <v>-0.02747207964084155</v>
+        <v>-0.03692991780935672</v>
       </c>
       <c r="D4">
-        <v>-0.01916388300416992</v>
+        <v>-0.02182142751462641</v>
       </c>
       <c r="E4">
-        <v>-0.07395945515725279</v>
+        <v>0.02139377905896195</v>
       </c>
       <c r="F4">
-        <v>-0.05083618693166894</v>
+        <v>-0.09287120458285844</v>
       </c>
       <c r="G4">
-        <v>0.0342930360439572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03409709637531646</v>
+      </c>
+      <c r="H4">
+        <v>-0.0323349233712743</v>
+      </c>
+      <c r="I4">
+        <v>-0.02392045702499998</v>
+      </c>
+      <c r="J4">
+        <v>-0.04265274384211116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01604495973423901</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003869156690311746</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0007247439791892904</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005060534194988298</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0007370727800271474</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01889789779114099</v>
+      </c>
+      <c r="H6">
+        <v>0.0005039269178322999</v>
+      </c>
+      <c r="I6">
+        <v>0.00627009326412192</v>
+      </c>
+      <c r="J6">
+        <v>0.001603427815944412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04232391924029631</v>
+        <v>0.03128099866272736</v>
       </c>
       <c r="C7">
-        <v>-0.00546582264181453</v>
+        <v>-0.01790698333739457</v>
       </c>
       <c r="D7">
-        <v>-0.03370486453088043</v>
+        <v>-0.01845556470862797</v>
       </c>
       <c r="E7">
-        <v>-0.07768428840599355</v>
+        <v>0.004825813696439469</v>
       </c>
       <c r="F7">
-        <v>0.03807353750432696</v>
+        <v>-0.06125625312212132</v>
       </c>
       <c r="G7">
-        <v>0.01577884573797854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01552452811707243</v>
+      </c>
+      <c r="H7">
+        <v>-0.05003293243724042</v>
+      </c>
+      <c r="I7">
+        <v>0.0006035007731461052</v>
+      </c>
+      <c r="J7">
+        <v>-0.009987552965605422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04170889846920457</v>
+        <v>0.03077416835234334</v>
       </c>
       <c r="C8">
-        <v>-0.03866772295012538</v>
+        <v>-0.0393910181803588</v>
       </c>
       <c r="D8">
-        <v>-0.0008834950350349132</v>
+        <v>-0.004706188556403166</v>
       </c>
       <c r="E8">
-        <v>-0.07214507864527199</v>
+        <v>0.01263661167339984</v>
       </c>
       <c r="F8">
-        <v>-0.001988061752236275</v>
+        <v>-0.08547423766438153</v>
       </c>
       <c r="G8">
-        <v>0.05366674465971946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.001574651539387267</v>
+      </c>
+      <c r="H8">
+        <v>-0.05502344032870175</v>
+      </c>
+      <c r="I8">
+        <v>-0.02746252913395191</v>
+      </c>
+      <c r="J8">
+        <v>-0.03863871216489893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08524344697533477</v>
+        <v>0.06065039151377095</v>
       </c>
       <c r="C9">
-        <v>-0.03089478289457745</v>
+        <v>-0.03712598635677487</v>
       </c>
       <c r="D9">
-        <v>-0.02994387884258438</v>
+        <v>-0.02268171997101563</v>
       </c>
       <c r="E9">
-        <v>-0.06702651237749281</v>
+        <v>0.0237174763900628</v>
       </c>
       <c r="F9">
-        <v>-0.0321213026983566</v>
+        <v>-0.09368591350482409</v>
       </c>
       <c r="G9">
-        <v>0.03315232943268536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02593367262130659</v>
+      </c>
+      <c r="H9">
+        <v>-0.02949438064996891</v>
+      </c>
+      <c r="I9">
+        <v>-0.003953410129780686</v>
+      </c>
+      <c r="J9">
+        <v>-0.006364109807702505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.007231265892708445</v>
+        <v>0.01578561251238554</v>
       </c>
       <c r="C10">
-        <v>0.1591104616091546</v>
+        <v>0.1576570079941708</v>
       </c>
       <c r="D10">
-        <v>0.005487715910953702</v>
+        <v>0.009840134656151347</v>
       </c>
       <c r="E10">
-        <v>-0.05826583254840964</v>
+        <v>-0.03137472109141117</v>
       </c>
       <c r="F10">
-        <v>-0.01567267852673439</v>
+        <v>-0.05740107289002862</v>
       </c>
       <c r="G10">
-        <v>-0.004554539150165601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02189224034098466</v>
+      </c>
+      <c r="H10">
+        <v>0.005591425607931052</v>
+      </c>
+      <c r="I10">
+        <v>-0.119542371379254</v>
+      </c>
+      <c r="J10">
+        <v>-0.008495877184756783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05751417138161898</v>
+        <v>0.04790052552757447</v>
       </c>
       <c r="C11">
-        <v>-0.006010942960659177</v>
+        <v>-0.02371893361219515</v>
       </c>
       <c r="D11">
-        <v>0.008415828769576965</v>
+        <v>-0.006338617913841376</v>
       </c>
       <c r="E11">
-        <v>-0.04121489492410363</v>
+        <v>-0.01624147996287932</v>
       </c>
       <c r="F11">
-        <v>-0.006667027493085764</v>
+        <v>-0.04371571593779512</v>
       </c>
       <c r="G11">
-        <v>-0.02102046838697763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001633405852807512</v>
+      </c>
+      <c r="H11">
+        <v>-0.01395185205401745</v>
+      </c>
+      <c r="I11">
+        <v>0.02011176801423735</v>
+      </c>
+      <c r="J11">
+        <v>-0.009808064601141885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04303701668101681</v>
+        <v>0.04356351969129569</v>
       </c>
       <c r="C12">
-        <v>-0.01212301197291889</v>
+        <v>-0.02348860844745148</v>
       </c>
       <c r="D12">
-        <v>0.005742743910035195</v>
+        <v>-0.00559385424975069</v>
       </c>
       <c r="E12">
-        <v>-0.03341032504571026</v>
+        <v>-0.0008511304866760828</v>
       </c>
       <c r="F12">
-        <v>-0.002569416800481955</v>
+        <v>-0.02543153541769658</v>
       </c>
       <c r="G12">
-        <v>-0.002281607624367664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004626575258461027</v>
+      </c>
+      <c r="H12">
+        <v>-0.01068187265199369</v>
+      </c>
+      <c r="I12">
+        <v>0.01885141485919139</v>
+      </c>
+      <c r="J12">
+        <v>-0.002691404933448672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05915287156793037</v>
+        <v>0.03994389181724303</v>
       </c>
       <c r="C13">
-        <v>-0.01753105714155088</v>
+        <v>-0.02304780736048774</v>
       </c>
       <c r="D13">
-        <v>0.00693501838520829</v>
+        <v>-0.008432197057422682</v>
       </c>
       <c r="E13">
-        <v>-0.1116517328942473</v>
+        <v>-0.02982717450338151</v>
       </c>
       <c r="F13">
-        <v>-0.02435642765087819</v>
+        <v>-0.1020082030507121</v>
       </c>
       <c r="G13">
-        <v>0.05252068559265734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007367253867744494</v>
+      </c>
+      <c r="H13">
+        <v>-0.06004194674790223</v>
+      </c>
+      <c r="I13">
+        <v>-0.009982519889688636</v>
+      </c>
+      <c r="J13">
+        <v>-0.03085268937653754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0376888174838514</v>
+        <v>0.02779275928167902</v>
       </c>
       <c r="C14">
-        <v>-0.009252948190107763</v>
+        <v>-0.01616699995419338</v>
       </c>
       <c r="D14">
-        <v>-0.019993155619946</v>
+        <v>-0.0217038060389413</v>
       </c>
       <c r="E14">
-        <v>-0.02164679266008265</v>
+        <v>0.004986680233515324</v>
       </c>
       <c r="F14">
-        <v>0.003347118243108864</v>
+        <v>-0.04014481010492479</v>
       </c>
       <c r="G14">
-        <v>0.03843802941916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01264141759218927</v>
+      </c>
+      <c r="H14">
+        <v>-0.05785964739361332</v>
+      </c>
+      <c r="I14">
+        <v>-0.01589613180229713</v>
+      </c>
+      <c r="J14">
+        <v>0.009690729452398837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04739481474776145</v>
+        <v>0.04186174217345337</v>
       </c>
       <c r="C16">
-        <v>-0.02189738914287799</v>
+        <v>-0.0316339130500335</v>
       </c>
       <c r="D16">
-        <v>0.01602386670038609</v>
+        <v>-0.0008511608802482927</v>
       </c>
       <c r="E16">
-        <v>-0.03859171899083139</v>
+        <v>-0.01172268008610072</v>
       </c>
       <c r="F16">
-        <v>-0.000994240022999425</v>
+        <v>-0.03696917731147766</v>
       </c>
       <c r="G16">
-        <v>-0.01458733888773688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.009762398233231761</v>
+      </c>
+      <c r="H16">
+        <v>-0.01598328461569904</v>
+      </c>
+      <c r="I16">
+        <v>0.01662420860167627</v>
+      </c>
+      <c r="J16">
+        <v>-0.007888350064127411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05057947120926938</v>
+        <v>0.04393437227170415</v>
       </c>
       <c r="C19">
-        <v>-0.02758332111262701</v>
+        <v>-0.03524530291516638</v>
       </c>
       <c r="D19">
-        <v>-0.001414679055951107</v>
+        <v>-0.008900849172744224</v>
       </c>
       <c r="E19">
-        <v>-0.07899486762505323</v>
+        <v>-0.01115411317860904</v>
       </c>
       <c r="F19">
-        <v>0.00535497629619755</v>
+        <v>-0.09133295771313674</v>
       </c>
       <c r="G19">
-        <v>0.07145607210982631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006053177024619229</v>
+      </c>
+      <c r="H19">
+        <v>-0.08476350700402123</v>
+      </c>
+      <c r="I19">
+        <v>-0.0348672757499027</v>
+      </c>
+      <c r="J19">
+        <v>-0.02289953707246355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03672773416982154</v>
+        <v>0.01625815492529207</v>
       </c>
       <c r="C20">
-        <v>-0.03421390116432965</v>
+        <v>-0.03206138159728997</v>
       </c>
       <c r="D20">
-        <v>-0.01149910089513049</v>
+        <v>-0.01305957470228856</v>
       </c>
       <c r="E20">
-        <v>-0.06873440398203078</v>
+        <v>0.003509521846826015</v>
       </c>
       <c r="F20">
-        <v>0.01105413954259981</v>
+        <v>-0.07590388519259032</v>
       </c>
       <c r="G20">
-        <v>0.04136884160064826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01019963018472207</v>
+      </c>
+      <c r="H20">
+        <v>-0.07459508987504905</v>
+      </c>
+      <c r="I20">
+        <v>-0.01559466692434127</v>
+      </c>
+      <c r="J20">
+        <v>-0.04920323034054051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03843891415554213</v>
+        <v>0.01884063444165754</v>
       </c>
       <c r="C21">
-        <v>-0.01689218580117515</v>
+        <v>-0.02553924808426371</v>
       </c>
       <c r="D21">
-        <v>0.0006885609526252875</v>
+        <v>0.00413651144467868</v>
       </c>
       <c r="E21">
-        <v>-0.08819636293271428</v>
+        <v>0.001567482481700492</v>
       </c>
       <c r="F21">
-        <v>-0.04926369273534546</v>
+        <v>-0.08132251679232226</v>
       </c>
       <c r="G21">
-        <v>0.04173981527942047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02126099173715174</v>
+      </c>
+      <c r="H21">
+        <v>-0.03928699324420677</v>
+      </c>
+      <c r="I21">
+        <v>0.006596792549023452</v>
+      </c>
+      <c r="J21">
+        <v>0.01753389480227628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0482584280825327</v>
+        <v>0.040804868676504</v>
       </c>
       <c r="C24">
-        <v>-0.01449115109274297</v>
+        <v>-0.02086930763337267</v>
       </c>
       <c r="D24">
-        <v>0.003483079540502382</v>
+        <v>-0.005759867655791983</v>
       </c>
       <c r="E24">
-        <v>-0.04836774036786864</v>
+        <v>-0.009019980324427785</v>
       </c>
       <c r="F24">
-        <v>-0.003327338687177435</v>
+        <v>-0.04527792471934541</v>
       </c>
       <c r="G24">
-        <v>-0.009987954380485879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01023896522862988</v>
+      </c>
+      <c r="H24">
+        <v>-0.01421276765772146</v>
+      </c>
+      <c r="I24">
+        <v>0.01694661571393809</v>
+      </c>
+      <c r="J24">
+        <v>-0.01799909712217267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04834274236294998</v>
+        <v>0.04201697093858223</v>
       </c>
       <c r="C25">
-        <v>-0.004474443465264906</v>
+        <v>-0.02085152397006306</v>
       </c>
       <c r="D25">
-        <v>0.005233304890543163</v>
+        <v>-0.003988087872006515</v>
       </c>
       <c r="E25">
-        <v>-0.04571351901815808</v>
+        <v>-0.01118916404661458</v>
       </c>
       <c r="F25">
-        <v>-0.01103030050363713</v>
+        <v>-0.04822377251955835</v>
       </c>
       <c r="G25">
-        <v>-0.01122117970770889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00248123729383802</v>
+      </c>
+      <c r="H25">
+        <v>-0.009852022726285412</v>
+      </c>
+      <c r="I25">
+        <v>0.01829678288411015</v>
+      </c>
+      <c r="J25">
+        <v>-0.008031209036307713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005735811087976759</v>
+        <v>0.01105830839064571</v>
       </c>
       <c r="C26">
-        <v>-0.01670510905406865</v>
+        <v>-0.01776436816092042</v>
       </c>
       <c r="D26">
-        <v>-0.005487365165182839</v>
+        <v>0.0003818796490185923</v>
       </c>
       <c r="E26">
-        <v>-0.04931312288413059</v>
+        <v>-0.01986669619004095</v>
       </c>
       <c r="F26">
-        <v>-0.01872143656404066</v>
+        <v>-0.05108293212124567</v>
       </c>
       <c r="G26">
-        <v>0.01347137715199697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007386984218036519</v>
+      </c>
+      <c r="H26">
+        <v>-0.03867195130678615</v>
+      </c>
+      <c r="I26">
+        <v>0.007174244258169126</v>
+      </c>
+      <c r="J26">
+        <v>-0.01277916758408048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1116209038009874</v>
+        <v>0.08363839225399954</v>
       </c>
       <c r="C27">
-        <v>-0.01850593495784083</v>
+        <v>-0.02721691013316037</v>
       </c>
       <c r="D27">
-        <v>-0.02102672473576835</v>
+        <v>-0.02794871517172413</v>
       </c>
       <c r="E27">
-        <v>-0.1112723565788916</v>
+        <v>0.006487988380532987</v>
       </c>
       <c r="F27">
-        <v>-0.02776490151915514</v>
+        <v>-0.08948077374037884</v>
       </c>
       <c r="G27">
-        <v>-0.001631611125675402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.006592741959726431</v>
+      </c>
+      <c r="H27">
+        <v>-0.01201548201395797</v>
+      </c>
+      <c r="I27">
+        <v>-0.008111243889098308</v>
+      </c>
+      <c r="J27">
+        <v>-0.02864719942327814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.006404286066181273</v>
+        <v>0.03070593434070639</v>
       </c>
       <c r="C28">
-        <v>0.2417258776072448</v>
+        <v>0.2327055751677364</v>
       </c>
       <c r="D28">
-        <v>0.01130631384167467</v>
+        <v>0.01485966599135763</v>
       </c>
       <c r="E28">
-        <v>-0.02911211205603095</v>
+        <v>-0.02528543562162137</v>
       </c>
       <c r="F28">
-        <v>-0.01397681809219232</v>
+        <v>-0.04215916328317947</v>
       </c>
       <c r="G28">
-        <v>-0.01609308004771623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02641545563713141</v>
+      </c>
+      <c r="H28">
+        <v>0.02439217337409273</v>
+      </c>
+      <c r="I28">
+        <v>-0.1683367035329986</v>
+      </c>
+      <c r="J28">
+        <v>-0.02376396336660336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01884022990079552</v>
+        <v>0.01873640996557472</v>
       </c>
       <c r="C29">
-        <v>-0.01813205851684143</v>
+        <v>-0.01867850171254574</v>
       </c>
       <c r="D29">
-        <v>-0.02278521234546412</v>
+        <v>-0.01980264626141202</v>
       </c>
       <c r="E29">
-        <v>-0.02798869074559978</v>
+        <v>0.01181858776120128</v>
       </c>
       <c r="F29">
-        <v>-0.007064976915879001</v>
+        <v>-0.04044886104088711</v>
       </c>
       <c r="G29">
-        <v>0.03676629384606501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01261774475010769</v>
+      </c>
+      <c r="H29">
+        <v>-0.05622651405833946</v>
+      </c>
+      <c r="I29">
+        <v>-0.005089421565870693</v>
+      </c>
+      <c r="J29">
+        <v>0.02835825790040149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1048846063137392</v>
+        <v>0.09671904798021354</v>
       </c>
       <c r="C30">
-        <v>-0.01021042854187164</v>
+        <v>-0.03684444114072077</v>
       </c>
       <c r="D30">
-        <v>-0.02116820099184706</v>
+        <v>-0.03440236548305119</v>
       </c>
       <c r="E30">
-        <v>-0.113347289083048</v>
+        <v>-0.02480234633977627</v>
       </c>
       <c r="F30">
-        <v>-0.0294469642889849</v>
+        <v>-0.1076249557255653</v>
       </c>
       <c r="G30">
-        <v>-0.0671378421458718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01052660594447821</v>
+      </c>
+      <c r="H30">
+        <v>-0.01212840502134122</v>
+      </c>
+      <c r="I30">
+        <v>0.02836708515096169</v>
+      </c>
+      <c r="J30">
+        <v>0.0003243935759928137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05661896176124098</v>
+        <v>0.0594535831313962</v>
       </c>
       <c r="C31">
-        <v>-0.01359576476575142</v>
+        <v>-0.02112689360631691</v>
       </c>
       <c r="D31">
-        <v>-0.01365798411675836</v>
+        <v>-0.01976927767649054</v>
       </c>
       <c r="E31">
-        <v>0.02058838670433279</v>
+        <v>-0.01241292036571966</v>
       </c>
       <c r="F31">
-        <v>-0.005594705773957592</v>
+        <v>-0.003959740182871509</v>
       </c>
       <c r="G31">
-        <v>0.005929712506877799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03280304140315152</v>
+      </c>
+      <c r="H31">
+        <v>-0.04677129154607405</v>
+      </c>
+      <c r="I31">
+        <v>-0.009945178891326659</v>
+      </c>
+      <c r="J31">
+        <v>0.02198334305275605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07044774107847679</v>
+        <v>0.04637092513574292</v>
       </c>
       <c r="C32">
-        <v>-0.0278009401553552</v>
+        <v>-0.04670400476443999</v>
       </c>
       <c r="D32">
-        <v>-0.01445538799098909</v>
+        <v>-0.02008470708360072</v>
       </c>
       <c r="E32">
-        <v>-0.117330565391413</v>
+        <v>0.006898452503699465</v>
       </c>
       <c r="F32">
-        <v>0.0003734260063373237</v>
+        <v>-0.1033749176062622</v>
       </c>
       <c r="G32">
-        <v>0.02963469686446171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.004466254818810153</v>
+      </c>
+      <c r="H32">
+        <v>-0.04478664642136362</v>
+      </c>
+      <c r="I32">
+        <v>-0.02038247538207586</v>
+      </c>
+      <c r="J32">
+        <v>0.009134952387782131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06828332514913463</v>
+        <v>0.05746680945696245</v>
       </c>
       <c r="C33">
-        <v>-0.03183697678180457</v>
+        <v>-0.04636456144286429</v>
       </c>
       <c r="D33">
-        <v>-0.008960007482811453</v>
+        <v>-0.006262258409882138</v>
       </c>
       <c r="E33">
-        <v>-0.07191892991656501</v>
+        <v>-0.01978560287069855</v>
       </c>
       <c r="F33">
-        <v>-0.04650049148079354</v>
+        <v>-0.08335240574050538</v>
       </c>
       <c r="G33">
-        <v>0.02637292118357559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01840345644261272</v>
+      </c>
+      <c r="H33">
+        <v>-0.04973692984327874</v>
+      </c>
+      <c r="I33">
+        <v>0.01549779613686399</v>
+      </c>
+      <c r="J33">
+        <v>-0.01090053694903909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04678122878757843</v>
+        <v>0.04114022691432017</v>
       </c>
       <c r="C34">
-        <v>-0.01410723705539508</v>
+        <v>-0.02734080857276877</v>
       </c>
       <c r="D34">
-        <v>0.005410235832006726</v>
+        <v>-0.009483321860655602</v>
       </c>
       <c r="E34">
-        <v>-0.02683821462244921</v>
+        <v>-0.007400293947228187</v>
       </c>
       <c r="F34">
-        <v>0.002538229362658374</v>
+        <v>-0.03670939097681225</v>
       </c>
       <c r="G34">
-        <v>0.002523557550588936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00129873267585369</v>
+      </c>
+      <c r="H34">
+        <v>-0.02051141582587992</v>
+      </c>
+      <c r="I34">
+        <v>0.01590597481184543</v>
+      </c>
+      <c r="J34">
+        <v>-0.001149654525654064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01249591148995755</v>
+        <v>0.01390562508263118</v>
       </c>
       <c r="C36">
-        <v>0.009651607338082369</v>
+        <v>-0.001152718645469407</v>
       </c>
       <c r="D36">
-        <v>-0.0061492827346478</v>
+        <v>-0.007258154759699622</v>
       </c>
       <c r="E36">
-        <v>-0.02267982638963572</v>
+        <v>0.0001978875557506694</v>
       </c>
       <c r="F36">
-        <v>-0.008593402956265738</v>
+        <v>-0.03047022611062708</v>
       </c>
       <c r="G36">
-        <v>0.01172376675566301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01360011215014072</v>
+      </c>
+      <c r="H36">
+        <v>-0.03333147648814246</v>
+      </c>
+      <c r="I36">
+        <v>-0.002169061311228375</v>
+      </c>
+      <c r="J36">
+        <v>0.0223909277279345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05737229088043763</v>
+        <v>0.03202991140122807</v>
       </c>
       <c r="C38">
-        <v>-0.005869015989044389</v>
+        <v>-0.01057248798344048</v>
       </c>
       <c r="D38">
-        <v>-0.02536148493743913</v>
+        <v>-0.007584706356387497</v>
       </c>
       <c r="E38">
-        <v>-0.03304223252634519</v>
+        <v>-0.001409901542547063</v>
       </c>
       <c r="F38">
-        <v>-0.01185439398632653</v>
+        <v>-0.05273049812418353</v>
       </c>
       <c r="G38">
-        <v>0.04314705840469094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02450347901947329</v>
+      </c>
+      <c r="H38">
+        <v>-0.017853159837905</v>
+      </c>
+      <c r="I38">
+        <v>0.001839204615006407</v>
+      </c>
+      <c r="J38">
+        <v>0.02933777010643784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07396862962097625</v>
+        <v>0.05657133783084243</v>
       </c>
       <c r="C39">
-        <v>-0.0131584014826285</v>
+        <v>-0.0360469546640234</v>
       </c>
       <c r="D39">
-        <v>-0.00124976003114571</v>
+        <v>-0.0166066759206177</v>
       </c>
       <c r="E39">
-        <v>-0.04593643314544203</v>
+        <v>-0.01866122831526451</v>
       </c>
       <c r="F39">
-        <v>-0.02314292088363734</v>
+        <v>-0.05872369185467935</v>
       </c>
       <c r="G39">
-        <v>-0.007476494297321683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009650950116325252</v>
+      </c>
+      <c r="H39">
+        <v>-0.01654914796101779</v>
+      </c>
+      <c r="I39">
+        <v>0.03420918866029804</v>
+      </c>
+      <c r="J39">
+        <v>-0.004149707204600461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06912583458412763</v>
+        <v>0.0551030107112466</v>
       </c>
       <c r="C40">
-        <v>-0.02715866291129577</v>
+        <v>-0.03518402102916712</v>
       </c>
       <c r="D40">
-        <v>-0.005746342311687395</v>
+        <v>-0.02488850328893427</v>
       </c>
       <c r="E40">
-        <v>-0.113901708329308</v>
+        <v>-0.03575299318715774</v>
       </c>
       <c r="F40">
-        <v>-0.03988833167437934</v>
+        <v>-0.1069794279308591</v>
       </c>
       <c r="G40">
-        <v>0.09920400576051901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0006752187993812836</v>
+      </c>
+      <c r="H40">
+        <v>-0.08010043081199056</v>
+      </c>
+      <c r="I40">
+        <v>-0.005822394796633918</v>
+      </c>
+      <c r="J40">
+        <v>-0.05494031728478942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003916996807170807</v>
+        <v>0.001386852348099697</v>
       </c>
       <c r="C41">
-        <v>-0.01350882526098498</v>
+        <v>-0.01178468636547411</v>
       </c>
       <c r="D41">
-        <v>-0.01777465223011212</v>
+        <v>-0.005314679891548589</v>
       </c>
       <c r="E41">
-        <v>-0.009736823203538143</v>
+        <v>0.0009472519342675345</v>
       </c>
       <c r="F41">
-        <v>-0.02269228136939545</v>
+        <v>-0.01719178521212749</v>
       </c>
       <c r="G41">
-        <v>0.02494367438052494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02602896745551507</v>
+      </c>
+      <c r="H41">
+        <v>-0.04003249154470541</v>
+      </c>
+      <c r="I41">
+        <v>-0.02200839527356602</v>
+      </c>
+      <c r="J41">
+        <v>0.007023809747003677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1342642722481153</v>
+        <v>0.2335968890711465</v>
       </c>
       <c r="C42">
-        <v>-0.1716019909079252</v>
+        <v>-0.1382072969616923</v>
       </c>
       <c r="D42">
-        <v>0.937269035533307</v>
+        <v>0.8952292319476151</v>
       </c>
       <c r="E42">
-        <v>0.004789037464514175</v>
+        <v>-0.2383264310853704</v>
       </c>
       <c r="F42">
-        <v>0.007250871121658601</v>
+        <v>0.1913222325782036</v>
       </c>
       <c r="G42">
-        <v>-0.1297997454154632</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003606476188700642</v>
+      </c>
+      <c r="H42">
+        <v>0.002979215185683753</v>
+      </c>
+      <c r="I42">
+        <v>-0.05042025180741654</v>
+      </c>
+      <c r="J42">
+        <v>-0.003158788329091604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.00813316970503445</v>
+        <v>0.003756800664130227</v>
       </c>
       <c r="C43">
-        <v>-0.01500919134548682</v>
+        <v>-0.01369431321521916</v>
       </c>
       <c r="D43">
-        <v>-0.01718721028234755</v>
+        <v>-0.006142526838445156</v>
       </c>
       <c r="E43">
-        <v>-0.0316249645511163</v>
+        <v>-0.00231538171047658</v>
       </c>
       <c r="F43">
-        <v>0.0003200892891486053</v>
+        <v>-0.03024849489907986</v>
       </c>
       <c r="G43">
-        <v>0.01802470170418816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008902099599952546</v>
+      </c>
+      <c r="H43">
+        <v>-0.03695597002742624</v>
+      </c>
+      <c r="I43">
+        <v>-0.01391296351566052</v>
+      </c>
+      <c r="J43">
+        <v>8.689771881432161e-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03821623643854271</v>
+        <v>0.02568403673030369</v>
       </c>
       <c r="C44">
-        <v>-0.03796606434808767</v>
+        <v>-0.03263447238411585</v>
       </c>
       <c r="D44">
-        <v>-0.01128535226045544</v>
+        <v>-0.00282167670878201</v>
       </c>
       <c r="E44">
-        <v>-0.1110488805059248</v>
+        <v>-0.01614742587065304</v>
       </c>
       <c r="F44">
-        <v>-0.0774017597648865</v>
+        <v>-0.1227988452311948</v>
       </c>
       <c r="G44">
-        <v>0.1284908075683412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02990525823067497</v>
+      </c>
+      <c r="H44">
+        <v>-0.1205593852034116</v>
+      </c>
+      <c r="I44">
+        <v>-0.02296926068623602</v>
+      </c>
+      <c r="J44">
+        <v>-0.01074460834220566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02329416244244669</v>
+        <v>0.02153034637322268</v>
       </c>
       <c r="C46">
-        <v>-0.01467211880603206</v>
+        <v>-0.02613829220336317</v>
       </c>
       <c r="D46">
-        <v>-0.02205878897242225</v>
+        <v>-0.01869109210420061</v>
       </c>
       <c r="E46">
-        <v>-0.01981806966840752</v>
+        <v>-0.001834815447205753</v>
       </c>
       <c r="F46">
-        <v>-0.01931507308036413</v>
+        <v>-0.04773264947501655</v>
       </c>
       <c r="G46">
-        <v>0.03620525658561417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01344069722371084</v>
+      </c>
+      <c r="H46">
+        <v>-0.06149630404490057</v>
+      </c>
+      <c r="I46">
+        <v>-0.01159922882585704</v>
+      </c>
+      <c r="J46">
+        <v>0.004516234509948976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08221501085186772</v>
+        <v>0.08954944287881048</v>
       </c>
       <c r="C47">
-        <v>-0.01053114564941927</v>
+        <v>-0.02060183377528679</v>
       </c>
       <c r="D47">
-        <v>-0.01757776769052975</v>
+        <v>-0.02403951030642475</v>
       </c>
       <c r="E47">
-        <v>0.02436291533673569</v>
+        <v>0.002763101314098763</v>
       </c>
       <c r="F47">
-        <v>0.0003711489710003411</v>
+        <v>0.002862760314296508</v>
       </c>
       <c r="G47">
-        <v>0.02515217895461114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02909445534684867</v>
+      </c>
+      <c r="H47">
+        <v>-0.06275891492010184</v>
+      </c>
+      <c r="I47">
+        <v>-0.01746160927831068</v>
+      </c>
+      <c r="J47">
+        <v>0.009336888365955203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0148215698613731</v>
+        <v>0.01602240051565471</v>
       </c>
       <c r="C48">
-        <v>-0.01691043697635297</v>
+        <v>-0.01951383179981887</v>
       </c>
       <c r="D48">
-        <v>-0.01608301489605859</v>
+        <v>-0.008334631813549142</v>
       </c>
       <c r="E48">
-        <v>-0.03377612544211894</v>
+        <v>0.002591998318061233</v>
       </c>
       <c r="F48">
-        <v>-0.01564997962658994</v>
+        <v>-0.03671826341820619</v>
       </c>
       <c r="G48">
-        <v>0.01081983606481947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.006957641238573183</v>
+      </c>
+      <c r="H48">
+        <v>-0.02478731378993418</v>
+      </c>
+      <c r="I48">
+        <v>-0.01094843252488656</v>
+      </c>
+      <c r="J48">
+        <v>0.004111524569227494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08189758407670016</v>
+        <v>0.08487449991717819</v>
       </c>
       <c r="C50">
-        <v>-0.02749530706767202</v>
+        <v>-0.03519543855258333</v>
       </c>
       <c r="D50">
-        <v>-0.02606399898924258</v>
+        <v>-0.01790467512265883</v>
       </c>
       <c r="E50">
-        <v>0.02464667291410504</v>
+        <v>0.005323442718499902</v>
       </c>
       <c r="F50">
-        <v>0.001462931458503756</v>
+        <v>-0.002760141027803686</v>
       </c>
       <c r="G50">
-        <v>0.01034780075967823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0002897363035001173</v>
+      </c>
+      <c r="H50">
+        <v>-0.04851849849986982</v>
+      </c>
+      <c r="I50">
+        <v>0.001972730080599755</v>
+      </c>
+      <c r="J50">
+        <v>0.05040707119836581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07042603698918795</v>
+        <v>0.04705068568259811</v>
       </c>
       <c r="C51">
-        <v>0.02179142363941898</v>
+        <v>0.003834882148624992</v>
       </c>
       <c r="D51">
-        <v>0.002301368089534989</v>
+        <v>-0.01302011023194988</v>
       </c>
       <c r="E51">
-        <v>-0.07385847029699821</v>
+        <v>-0.03646423220868727</v>
       </c>
       <c r="F51">
-        <v>-0.0529377510924386</v>
+        <v>-0.08986616644677797</v>
       </c>
       <c r="G51">
-        <v>0.01639890016709884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04354574552340713</v>
+      </c>
+      <c r="H51">
+        <v>-0.0656257193745316</v>
+      </c>
+      <c r="I51">
+        <v>-0.03241287534530807</v>
+      </c>
+      <c r="J51">
+        <v>0.01062210691190577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1458939585623251</v>
+        <v>0.1274807908943457</v>
       </c>
       <c r="C53">
-        <v>-0.01425228722157974</v>
+        <v>-0.03894698158988214</v>
       </c>
       <c r="D53">
-        <v>-0.04030289910381491</v>
+        <v>-0.04540907067550991</v>
       </c>
       <c r="E53">
-        <v>0.04213914070352894</v>
+        <v>0.01372149983520593</v>
       </c>
       <c r="F53">
-        <v>0.01613295130162492</v>
+        <v>0.03113533179057254</v>
       </c>
       <c r="G53">
-        <v>-0.01206574461180459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02145164504577778</v>
+      </c>
+      <c r="H53">
+        <v>-0.002838493892833122</v>
+      </c>
+      <c r="I53">
+        <v>-0.03081139537169548</v>
+      </c>
+      <c r="J53">
+        <v>-0.03011627134884705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.024967214614276</v>
+        <v>0.02069132814092946</v>
       </c>
       <c r="C54">
-        <v>0.003874781441144271</v>
+        <v>-0.007183693192068306</v>
       </c>
       <c r="D54">
-        <v>-0.02768976034034281</v>
+        <v>-0.0231762093197929</v>
       </c>
       <c r="E54">
-        <v>-0.02831793428646891</v>
+        <v>0.009291409828668719</v>
       </c>
       <c r="F54">
-        <v>-0.04046548582979176</v>
+        <v>-0.04486820891993588</v>
       </c>
       <c r="G54">
-        <v>0.05240211006663462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0327127249227152</v>
+      </c>
+      <c r="H54">
+        <v>-0.05512853519121434</v>
+      </c>
+      <c r="I54">
+        <v>-0.03242991737150346</v>
+      </c>
+      <c r="J54">
+        <v>0.02986925166965262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09763707536581566</v>
+        <v>0.1012167085919714</v>
       </c>
       <c r="C55">
-        <v>0.000732048681176757</v>
+        <v>-0.02144527161092219</v>
       </c>
       <c r="D55">
-        <v>-0.03693530093990339</v>
+        <v>-0.02743678599274012</v>
       </c>
       <c r="E55">
-        <v>0.006162751498235667</v>
+        <v>0.03603372091650162</v>
       </c>
       <c r="F55">
-        <v>0.0308933397595378</v>
+        <v>0.0153984387771314</v>
       </c>
       <c r="G55">
-        <v>-0.01203422723710378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01278447732549579</v>
+      </c>
+      <c r="H55">
+        <v>-0.01822814773430751</v>
+      </c>
+      <c r="I55">
+        <v>-0.008845936377213546</v>
+      </c>
+      <c r="J55">
+        <v>-0.01930615840010277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1789286517582186</v>
+        <v>0.1681278873836747</v>
       </c>
       <c r="C56">
-        <v>0.01410509881080192</v>
+        <v>-0.01944977375239811</v>
       </c>
       <c r="D56">
-        <v>-0.07374959289446054</v>
+        <v>-0.08109117472414056</v>
       </c>
       <c r="E56">
-        <v>0.07309479524225627</v>
+        <v>0.04364833366082849</v>
       </c>
       <c r="F56">
-        <v>0.07021110774654225</v>
+        <v>0.06676760818523692</v>
       </c>
       <c r="G56">
-        <v>-0.02670611015584385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02078641375067011</v>
+      </c>
+      <c r="H56">
+        <v>0.03772768031765601</v>
+      </c>
+      <c r="I56">
+        <v>0.001337523281925832</v>
+      </c>
+      <c r="J56">
+        <v>-0.05749588254092144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08848817499500695</v>
+        <v>0.06916333749317788</v>
       </c>
       <c r="C57">
-        <v>-0.02584668595338988</v>
+        <v>-0.02908736429167022</v>
       </c>
       <c r="D57">
-        <v>-0.02308931623519467</v>
+        <v>-0.01467846381664833</v>
       </c>
       <c r="E57">
-        <v>-0.06152653464147964</v>
+        <v>-0.01919378983030159</v>
       </c>
       <c r="F57">
-        <v>-0.01908959430219657</v>
+        <v>-0.0676515367849819</v>
       </c>
       <c r="G57">
-        <v>0.04746607635701125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005692791603032659</v>
+      </c>
+      <c r="H57">
+        <v>-0.04165859053269152</v>
+      </c>
+      <c r="I57">
+        <v>0.01290661732286627</v>
+      </c>
+      <c r="J57">
+        <v>-0.03730484098953062</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1621409162400113</v>
+        <v>0.1954664510237724</v>
       </c>
       <c r="C58">
-        <v>-0.0001763651777127543</v>
+        <v>-0.04929527889697585</v>
       </c>
       <c r="D58">
-        <v>0.04084202084011609</v>
+        <v>0.01065151544323582</v>
       </c>
       <c r="E58">
-        <v>-0.1439388385677559</v>
+        <v>-0.06073837739194925</v>
       </c>
       <c r="F58">
-        <v>0.06756373122407067</v>
+        <v>-0.1867936671021691</v>
       </c>
       <c r="G58">
-        <v>0.2699440915634521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1797991143859461</v>
+      </c>
+      <c r="H58">
+        <v>-0.3120690256873005</v>
+      </c>
+      <c r="I58">
+        <v>-0.03262520448267814</v>
+      </c>
+      <c r="J58">
+        <v>0.6785088601622401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.006928963257306362</v>
+        <v>0.03401525854494419</v>
       </c>
       <c r="C59">
-        <v>0.2034015465305224</v>
+        <v>0.1970767352886478</v>
       </c>
       <c r="D59">
-        <v>-0.01749239880009622</v>
+        <v>-0.01996397767756865</v>
       </c>
       <c r="E59">
-        <v>-0.04635399593848973</v>
+        <v>-0.03899194322552383</v>
       </c>
       <c r="F59">
-        <v>-0.01209872003782242</v>
+        <v>-0.0533296884907422</v>
       </c>
       <c r="G59">
-        <v>-0.01501007234015361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004629518194395021</v>
+      </c>
+      <c r="H59">
+        <v>0.02053947548258982</v>
+      </c>
+      <c r="I59">
+        <v>-0.07278393586666465</v>
+      </c>
+      <c r="J59">
+        <v>0.03096705848780296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1883836024782301</v>
+        <v>0.1835132161911724</v>
       </c>
       <c r="C60">
-        <v>0.114036785277117</v>
+        <v>0.0536717289260405</v>
       </c>
       <c r="D60">
-        <v>-0.03773674377726696</v>
+        <v>-0.03625711308880339</v>
       </c>
       <c r="E60">
-        <v>-0.1684554552014331</v>
+        <v>-0.1095961067168341</v>
       </c>
       <c r="F60">
-        <v>-0.06242382339468516</v>
+        <v>-0.1869630807379052</v>
       </c>
       <c r="G60">
-        <v>-0.1727682853152367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04861036895265013</v>
+      </c>
+      <c r="H60">
+        <v>0.2487057940050788</v>
+      </c>
+      <c r="I60">
+        <v>0.1074564049021365</v>
+      </c>
+      <c r="J60">
+        <v>0.01438019611301296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04551753040008637</v>
+        <v>0.03679320887386551</v>
       </c>
       <c r="C61">
-        <v>0.001871622402298928</v>
+        <v>-0.01697525166699144</v>
       </c>
       <c r="D61">
-        <v>0.007613461993458456</v>
+        <v>-0.003586376020276739</v>
       </c>
       <c r="E61">
-        <v>-0.04964090741155729</v>
+        <v>-0.01504965495093302</v>
       </c>
       <c r="F61">
-        <v>-0.02589889312048931</v>
+        <v>-0.04605045675906286</v>
       </c>
       <c r="G61">
-        <v>-0.007507131042323973</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008910943964502361</v>
+      </c>
+      <c r="H61">
+        <v>-0.006897581137116594</v>
+      </c>
+      <c r="I61">
+        <v>0.03707100930970915</v>
+      </c>
+      <c r="J61">
+        <v>0.01703490122552433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04408775566307466</v>
+        <v>0.02947844177989426</v>
       </c>
       <c r="C63">
-        <v>0.006020097497450939</v>
+        <v>-0.01627795071709383</v>
       </c>
       <c r="D63">
-        <v>-0.01564879904488706</v>
+        <v>-0.01366996683387414</v>
       </c>
       <c r="E63">
-        <v>-0.03785261814040077</v>
+        <v>-0.00798181560049928</v>
       </c>
       <c r="F63">
-        <v>-0.006078471233477662</v>
+        <v>-0.03130150161021485</v>
       </c>
       <c r="G63">
-        <v>0.01505480800717525</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.003755987786020708</v>
+      </c>
+      <c r="H63">
+        <v>-0.04517608706850165</v>
+      </c>
+      <c r="I63">
+        <v>-0.02622210681077502</v>
+      </c>
+      <c r="J63">
+        <v>-0.02073742054648005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08810789396676154</v>
+        <v>0.06279259672985284</v>
       </c>
       <c r="C64">
-        <v>-0.03578400241008794</v>
+        <v>-0.04270676723817803</v>
       </c>
       <c r="D64">
-        <v>-0.05593872305966656</v>
+        <v>-0.03199114203250163</v>
       </c>
       <c r="E64">
-        <v>-0.05291808226505826</v>
+        <v>0.02956586776562218</v>
       </c>
       <c r="F64">
-        <v>-0.09166140191198326</v>
+        <v>-0.07045272391098273</v>
       </c>
       <c r="G64">
-        <v>-0.0615570660687987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06217454213474998</v>
+      </c>
+      <c r="H64">
+        <v>0.01115557652261121</v>
+      </c>
+      <c r="I64">
+        <v>-0.02010834532102394</v>
+      </c>
+      <c r="J64">
+        <v>-0.07841046860833611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01776118605366139</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00399001365964583</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.00081783950613836</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00536576262993667</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001723993764070846</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01990712619856561</v>
+      </c>
+      <c r="H65">
+        <v>0.004153127333512216</v>
+      </c>
+      <c r="I65">
+        <v>0.00824163902061718</v>
+      </c>
+      <c r="J65">
+        <v>0.001513849337109009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09420614892541433</v>
+        <v>0.06826113749302198</v>
       </c>
       <c r="C66">
-        <v>-0.02008608485784363</v>
+        <v>-0.04980356093690302</v>
       </c>
       <c r="D66">
-        <v>-0.03990922050773323</v>
+        <v>-0.04435148723295426</v>
       </c>
       <c r="E66">
-        <v>-0.07747270064582083</v>
+        <v>-0.02433629067324819</v>
       </c>
       <c r="F66">
-        <v>-0.04329065160781188</v>
+        <v>-0.07554299275263858</v>
       </c>
       <c r="G66">
-        <v>-0.01052855684417578</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01067440311740159</v>
+      </c>
+      <c r="H66">
+        <v>-0.00974712144591343</v>
+      </c>
+      <c r="I66">
+        <v>0.04987445595367872</v>
+      </c>
+      <c r="J66">
+        <v>-0.03251764491635015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06531161204283147</v>
+        <v>0.04289572872880599</v>
       </c>
       <c r="C67">
-        <v>0.01801760510781371</v>
+        <v>0.005928899279354524</v>
       </c>
       <c r="D67">
-        <v>-0.01313751077229631</v>
+        <v>-0.007815342053135641</v>
       </c>
       <c r="E67">
-        <v>-0.02670864336118258</v>
+        <v>-0.009068769121736139</v>
       </c>
       <c r="F67">
-        <v>-0.01040934814725521</v>
+        <v>-0.03916762288020384</v>
       </c>
       <c r="G67">
-        <v>0.03711015822568113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03243223723337511</v>
+      </c>
+      <c r="H67">
+        <v>-0.0005043427852681094</v>
+      </c>
+      <c r="I67">
+        <v>0.03564616016305475</v>
+      </c>
+      <c r="J67">
+        <v>0.011890255789992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.005166472091965156</v>
+        <v>0.04167943157734795</v>
       </c>
       <c r="C68">
-        <v>0.2438553967643808</v>
+        <v>0.2328293162778465</v>
       </c>
       <c r="D68">
-        <v>-0.004684522511371022</v>
+        <v>-0.01327798050721784</v>
       </c>
       <c r="E68">
-        <v>-0.02986493357368086</v>
+        <v>-0.0350957661206462</v>
       </c>
       <c r="F68">
-        <v>-0.0004786640652962569</v>
+        <v>-0.03719861080127231</v>
       </c>
       <c r="G68">
-        <v>-0.005986734167867855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004655725714630906</v>
+      </c>
+      <c r="H68">
+        <v>0.02419272146010693</v>
+      </c>
+      <c r="I68">
+        <v>-0.1766434903441861</v>
+      </c>
+      <c r="J68">
+        <v>0.02867542282121304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06932546681297727</v>
+        <v>0.07110856282550566</v>
       </c>
       <c r="C69">
-        <v>-0.01046305136737173</v>
+        <v>-0.01947237613611601</v>
       </c>
       <c r="D69">
-        <v>-0.02084663753417658</v>
+        <v>-0.03092169018759709</v>
       </c>
       <c r="E69">
-        <v>0.01118830618228202</v>
+        <v>-0.005002139916521069</v>
       </c>
       <c r="F69">
-        <v>0.003009019459637182</v>
+        <v>-0.004236688261615993</v>
       </c>
       <c r="G69">
-        <v>0.01249631220958517</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02049271654667344</v>
+      </c>
+      <c r="H69">
+        <v>-0.0431240799661876</v>
+      </c>
+      <c r="I69">
+        <v>0.004150127644634067</v>
+      </c>
+      <c r="J69">
+        <v>0.006516096955110089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.007158416067221915</v>
+        <v>0.04460257380225178</v>
       </c>
       <c r="C71">
-        <v>0.2656591918086293</v>
+        <v>0.2509281385794414</v>
       </c>
       <c r="D71">
-        <v>-0.006384692198055768</v>
+        <v>0.0048034463142009</v>
       </c>
       <c r="E71">
-        <v>-0.06098440193055952</v>
+        <v>-0.06085980467215337</v>
       </c>
       <c r="F71">
-        <v>-0.02083533766482288</v>
+        <v>-0.05414526697235925</v>
       </c>
       <c r="G71">
-        <v>-0.08018848185438493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01949505341722326</v>
+      </c>
+      <c r="H71">
+        <v>0.03642639969904261</v>
+      </c>
+      <c r="I71">
+        <v>-0.1492382626032633</v>
+      </c>
+      <c r="J71">
+        <v>0.03265329963430455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1188970715599916</v>
+        <v>0.1207297499901162</v>
       </c>
       <c r="C72">
-        <v>0.01076779871160133</v>
+        <v>-0.01216201112659243</v>
       </c>
       <c r="D72">
-        <v>-0.05097090177290692</v>
+        <v>-0.05542346044117889</v>
       </c>
       <c r="E72">
-        <v>-0.09145392010058191</v>
+        <v>-0.008924702499052554</v>
       </c>
       <c r="F72">
-        <v>-0.00779695085659979</v>
+        <v>-0.08602403919462379</v>
       </c>
       <c r="G72">
-        <v>0.05463042235681979</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04780817252883118</v>
+      </c>
+      <c r="H72">
+        <v>0.001944296062730781</v>
+      </c>
+      <c r="I72">
+        <v>0.02994159857261704</v>
+      </c>
+      <c r="J72">
+        <v>0.1335726158003266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2781003580759744</v>
+        <v>0.2690219465686249</v>
       </c>
       <c r="C73">
-        <v>0.1933540946276719</v>
+        <v>0.1082409931148012</v>
       </c>
       <c r="D73">
-        <v>0.003676653549643733</v>
+        <v>-0.008270469002664899</v>
       </c>
       <c r="E73">
-        <v>-0.3093547275009659</v>
+        <v>-0.1921894763933027</v>
       </c>
       <c r="F73">
-        <v>-0.09312794801673491</v>
+        <v>-0.2836403921417553</v>
       </c>
       <c r="G73">
-        <v>-0.3751359017369149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1043452937733604</v>
+      </c>
+      <c r="H73">
+        <v>0.4480734950411198</v>
+      </c>
+      <c r="I73">
+        <v>0.3416414573793236</v>
+      </c>
+      <c r="J73">
+        <v>0.05488086855778787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1607796286926129</v>
+        <v>0.1524138456931136</v>
       </c>
       <c r="C74">
-        <v>0.003426433542234835</v>
+        <v>-0.02457103811261625</v>
       </c>
       <c r="D74">
-        <v>-0.04239001525344725</v>
+        <v>-0.04681752184067509</v>
       </c>
       <c r="E74">
-        <v>0.009992318219416223</v>
+        <v>0.01562016209942345</v>
       </c>
       <c r="F74">
-        <v>0.05324703372980776</v>
+        <v>0.04015156704972686</v>
       </c>
       <c r="G74">
-        <v>-0.04629752303319341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01441226372240102</v>
+      </c>
+      <c r="H74">
+        <v>0.02300445177983943</v>
+      </c>
+      <c r="I74">
+        <v>0.01253555081584025</v>
+      </c>
+      <c r="J74">
+        <v>-0.08346302553329323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2381713096266202</v>
+        <v>0.2435748273342048</v>
       </c>
       <c r="C75">
-        <v>0.006942115188238005</v>
+        <v>-0.02994810241371397</v>
       </c>
       <c r="D75">
-        <v>-0.05445467981145338</v>
+        <v>-0.09943493301759233</v>
       </c>
       <c r="E75">
-        <v>0.1209628777526188</v>
+        <v>0.03266870149028518</v>
       </c>
       <c r="F75">
-        <v>0.06505273455273544</v>
+        <v>0.1279543241402504</v>
       </c>
       <c r="G75">
-        <v>-0.02935447565795804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006764542083505883</v>
+      </c>
+      <c r="H75">
+        <v>0.01593254086567776</v>
+      </c>
+      <c r="I75">
+        <v>-0.06513568991597996</v>
+      </c>
+      <c r="J75">
+        <v>-0.09700143649381947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.24452681750119</v>
+        <v>0.267942036916861</v>
       </c>
       <c r="C76">
-        <v>0.009748276332599727</v>
+        <v>-0.02445163084741455</v>
       </c>
       <c r="D76">
-        <v>-0.09571678494805307</v>
+        <v>-0.1230259251854029</v>
       </c>
       <c r="E76">
-        <v>0.1138985705109223</v>
+        <v>0.07698254178224707</v>
       </c>
       <c r="F76">
-        <v>0.08573632659226135</v>
+        <v>0.1519542080383736</v>
       </c>
       <c r="G76">
-        <v>-0.04623051428212801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04548735397766384</v>
+      </c>
+      <c r="H76">
+        <v>0.03423601031994083</v>
+      </c>
+      <c r="I76">
+        <v>0.02617489172978596</v>
+      </c>
+      <c r="J76">
+        <v>-0.1122141920792569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1225629583224161</v>
+        <v>0.1304797106891227</v>
       </c>
       <c r="C77">
-        <v>-0.0199696076388989</v>
+        <v>-0.05714950460003587</v>
       </c>
       <c r="D77">
-        <v>0.04380030352121869</v>
+        <v>0.04312056725296922</v>
       </c>
       <c r="E77">
-        <v>-0.1701713159610235</v>
+        <v>-0.03222227638672243</v>
       </c>
       <c r="F77">
-        <v>-0.02108373454698081</v>
+        <v>-0.1724315274658355</v>
       </c>
       <c r="G77">
-        <v>0.160277279069332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02945394560346596</v>
+      </c>
+      <c r="H77">
+        <v>-0.198233488173825</v>
+      </c>
+      <c r="I77">
+        <v>-0.1643388549470366</v>
+      </c>
+      <c r="J77">
+        <v>-0.1302573994826339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09119922914154643</v>
+        <v>0.08731160920223945</v>
       </c>
       <c r="C78">
-        <v>-0.03426579546255453</v>
+        <v>-0.05908218878957552</v>
       </c>
       <c r="D78">
-        <v>0.01355247703081954</v>
+        <v>0.00335878463970956</v>
       </c>
       <c r="E78">
-        <v>-0.06857154622215592</v>
+        <v>0.0022047551765507</v>
       </c>
       <c r="F78">
-        <v>-0.01839594443540041</v>
+        <v>-0.09160938522442345</v>
       </c>
       <c r="G78">
-        <v>0.0001692339663769886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.003765628187685217</v>
+      </c>
+      <c r="H78">
+        <v>-0.0265635516375019</v>
+      </c>
+      <c r="I78">
+        <v>-0.03300367169424633</v>
+      </c>
+      <c r="J78">
+        <v>-0.01465134111729222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06002566426813685</v>
+        <v>0.1124638303583587</v>
       </c>
       <c r="C80">
-        <v>-0.001558571015427014</v>
+        <v>0.149158129497047</v>
       </c>
       <c r="D80">
-        <v>0.01507202293649736</v>
+        <v>0.2899705548784313</v>
       </c>
       <c r="E80">
-        <v>-0.03336842927522459</v>
+        <v>0.8947538210349604</v>
       </c>
       <c r="F80">
-        <v>0.04571923300709892</v>
+        <v>-0.2184115406958518</v>
       </c>
       <c r="G80">
-        <v>0.423701902234686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01951506445538816</v>
+      </c>
+      <c r="H80">
+        <v>0.1003521249080496</v>
+      </c>
+      <c r="I80">
+        <v>0.05787337812183777</v>
+      </c>
+      <c r="J80">
+        <v>0.0598902983125599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1669608446487382</v>
+        <v>0.1795417286067101</v>
       </c>
       <c r="C81">
-        <v>0.004649789853810452</v>
+        <v>-0.01285800550608851</v>
       </c>
       <c r="D81">
-        <v>-0.04265038943916381</v>
+        <v>-0.08275103454630905</v>
       </c>
       <c r="E81">
-        <v>0.1274454751537336</v>
+        <v>0.04283139111642898</v>
       </c>
       <c r="F81">
-        <v>0.1003774705786531</v>
+        <v>0.1414868649724664</v>
       </c>
       <c r="G81">
-        <v>-0.04084675414568852</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02350538053361777</v>
+      </c>
+      <c r="H81">
+        <v>0.01734692973954843</v>
+      </c>
+      <c r="I81">
+        <v>-0.02952349672341868</v>
+      </c>
+      <c r="J81">
+        <v>-0.04817775427867552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08580788773083949</v>
+        <v>0.06507159033626321</v>
       </c>
       <c r="C83">
-        <v>-0.04395097741642121</v>
+        <v>-0.04364276958897095</v>
       </c>
       <c r="D83">
-        <v>0.08937133617160391</v>
+        <v>0.03841938133744586</v>
       </c>
       <c r="E83">
-        <v>-0.03759028868117357</v>
+        <v>-0.03567127201305597</v>
       </c>
       <c r="F83">
-        <v>-0.05701270685799129</v>
+        <v>-0.0499013208055565</v>
       </c>
       <c r="G83">
-        <v>0.01025304403970281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04374948794187422</v>
+      </c>
+      <c r="H83">
+        <v>-0.03463395721612472</v>
+      </c>
+      <c r="I83">
+        <v>-0.0148106662817314</v>
+      </c>
+      <c r="J83">
+        <v>-0.07813479162844753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2363534341004979</v>
+        <v>0.2555893906176238</v>
       </c>
       <c r="C85">
-        <v>-0.05915713701391001</v>
+        <v>-0.06205051701840082</v>
       </c>
       <c r="D85">
-        <v>-0.05106669543871953</v>
+        <v>-0.08112804233374192</v>
       </c>
       <c r="E85">
-        <v>0.1399440658956733</v>
+        <v>0.07547024278258374</v>
       </c>
       <c r="F85">
-        <v>0.06948031820713459</v>
+        <v>0.149642973677112</v>
       </c>
       <c r="G85">
-        <v>-0.0003579754584449807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.009093141612621257</v>
+      </c>
+      <c r="H85">
+        <v>-0.01513778216470209</v>
+      </c>
+      <c r="I85">
+        <v>-0.03476102698158116</v>
+      </c>
+      <c r="J85">
+        <v>-0.1139596681416321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04783631491147687</v>
+        <v>0.02994935336324946</v>
       </c>
       <c r="C86">
-        <v>-0.04207330562222181</v>
+        <v>-0.04754370882650739</v>
       </c>
       <c r="D86">
-        <v>-0.01022325691691677</v>
+        <v>-0.004629134952817344</v>
       </c>
       <c r="E86">
-        <v>-0.05095840346750314</v>
+        <v>0.003893107377358849</v>
       </c>
       <c r="F86">
-        <v>-0.001443504471809398</v>
+        <v>-0.06660778767539979</v>
       </c>
       <c r="G86">
-        <v>0.03375795188122664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.002362307349678512</v>
+      </c>
+      <c r="H86">
+        <v>-0.05540669605242692</v>
+      </c>
+      <c r="I86">
+        <v>-0.04925904130978517</v>
+      </c>
+      <c r="J86">
+        <v>-0.02271985741029831</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02537365234018044</v>
+        <v>0.03534339009659641</v>
       </c>
       <c r="C87">
-        <v>0.05376162464303429</v>
+        <v>0.02246009482548534</v>
       </c>
       <c r="D87">
-        <v>-0.02186673326643447</v>
+        <v>-0.007169363757081599</v>
       </c>
       <c r="E87">
-        <v>-0.05771166490526989</v>
+        <v>-0.02500464185649317</v>
       </c>
       <c r="F87">
-        <v>-0.0599880323936024</v>
+        <v>-0.09321618804567933</v>
       </c>
       <c r="G87">
-        <v>-0.1156616115057861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02605041065228801</v>
+      </c>
+      <c r="H87">
+        <v>0.007974731765015839</v>
+      </c>
+      <c r="I87">
+        <v>0.007246834316404628</v>
+      </c>
+      <c r="J87">
+        <v>0.0621034123238656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03873661372015987</v>
+        <v>0.02684350270975976</v>
       </c>
       <c r="C88">
-        <v>-0.02810585541937924</v>
+        <v>-0.01876240861428181</v>
       </c>
       <c r="D88">
-        <v>-0.005779110468418786</v>
+        <v>-0.01135699414052844</v>
       </c>
       <c r="E88">
-        <v>0.002056268564613212</v>
+        <v>0.02319197831115314</v>
       </c>
       <c r="F88">
-        <v>0.01084975712224285</v>
+        <v>-0.002099733603125604</v>
       </c>
       <c r="G88">
-        <v>0.04850520678376617</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02619518206391136</v>
+      </c>
+      <c r="H88">
+        <v>-0.0458397229717552</v>
+      </c>
+      <c r="I88">
+        <v>0.02599105799909422</v>
+      </c>
+      <c r="J88">
+        <v>0.006243614218696398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.002249256925261502</v>
+        <v>0.06408597221478486</v>
       </c>
       <c r="C89">
-        <v>0.4216065087911744</v>
+        <v>0.3897341019015798</v>
       </c>
       <c r="D89">
-        <v>0.09213751305019852</v>
+        <v>0.02215564718301815</v>
       </c>
       <c r="E89">
-        <v>0.02177046962247696</v>
+        <v>-0.08760304070641223</v>
       </c>
       <c r="F89">
-        <v>-0.004929881593299485</v>
+        <v>-0.006287257807460758</v>
       </c>
       <c r="G89">
-        <v>0.02896973402434901</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05272653432966219</v>
+      </c>
+      <c r="H89">
+        <v>-0.02173841039880746</v>
+      </c>
+      <c r="I89">
+        <v>-0.2813188552653973</v>
+      </c>
+      <c r="J89">
+        <v>-0.01701441460772828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.002234977414704483</v>
+        <v>0.04267164721649356</v>
       </c>
       <c r="C90">
-        <v>0.3075019614350764</v>
+        <v>0.3321814585618187</v>
       </c>
       <c r="D90">
-        <v>0.01900188906557974</v>
+        <v>0.01152946550380107</v>
       </c>
       <c r="E90">
-        <v>-0.03017282513933472</v>
+        <v>-0.03701743862220278</v>
       </c>
       <c r="F90">
-        <v>-0.01453864574562709</v>
+        <v>-0.03002531973148318</v>
       </c>
       <c r="G90">
-        <v>-0.06402055868671766</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02424940705337397</v>
+      </c>
+      <c r="H90">
+        <v>0.02430266963705943</v>
+      </c>
+      <c r="I90">
+        <v>-0.2200620627089761</v>
+      </c>
+      <c r="J90">
+        <v>0.01779993988909872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.304998709307485</v>
+        <v>0.3165706953010337</v>
       </c>
       <c r="C91">
-        <v>-0.02814147040032572</v>
+        <v>-0.0507383153052136</v>
       </c>
       <c r="D91">
-        <v>-0.04352254311444757</v>
+        <v>-0.09527526420655735</v>
       </c>
       <c r="E91">
-        <v>0.2644758799653109</v>
+        <v>0.07715081472330884</v>
       </c>
       <c r="F91">
-        <v>0.1712559476621638</v>
+        <v>0.2760697430065701</v>
       </c>
       <c r="G91">
-        <v>0.04486571553853223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04034375116666872</v>
+      </c>
+      <c r="H91">
+        <v>0.02519870018037235</v>
+      </c>
+      <c r="I91">
+        <v>-0.08184873408166971</v>
+      </c>
+      <c r="J91">
+        <v>-0.2190692491740071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.01546781854723834</v>
+        <v>0.08606138239619447</v>
       </c>
       <c r="C92">
-        <v>0.4415041138032544</v>
+        <v>0.4542936036587979</v>
       </c>
       <c r="D92">
-        <v>0.2066610018821706</v>
+        <v>0.04379042422791748</v>
       </c>
       <c r="E92">
-        <v>0.1047526879131433</v>
+        <v>-0.03355545441060979</v>
       </c>
       <c r="F92">
-        <v>0.09551206719439494</v>
+        <v>0.1567776923909067</v>
       </c>
       <c r="G92">
-        <v>0.4503629149421401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03013739243903514</v>
+      </c>
+      <c r="H92">
+        <v>-0.5236144395818073</v>
+      </c>
+      <c r="I92">
+        <v>0.6636722188351425</v>
+      </c>
+      <c r="J92">
+        <v>-0.1391517678964193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01391549134326887</v>
+        <v>0.04543990952303</v>
       </c>
       <c r="C93">
-        <v>0.3697248109120383</v>
+        <v>0.4032195418448736</v>
       </c>
       <c r="D93">
-        <v>0.06376278845667011</v>
+        <v>0.03093824746575385</v>
       </c>
       <c r="E93">
-        <v>0.04550255387661148</v>
+        <v>-0.06461831539120855</v>
       </c>
       <c r="F93">
-        <v>0.0192384140026352</v>
+        <v>0.03385399112072696</v>
       </c>
       <c r="G93">
-        <v>0.01866846565990372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03954881226757463</v>
+      </c>
+      <c r="H93">
+        <v>0.03358205596985424</v>
+      </c>
+      <c r="I93">
+        <v>-0.1993759825592646</v>
+      </c>
+      <c r="J93">
+        <v>-0.004683033862483609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.300435436614892</v>
+        <v>0.3229286877509813</v>
       </c>
       <c r="C94">
-        <v>0.02963305969633622</v>
+        <v>-0.0110155930887465</v>
       </c>
       <c r="D94">
-        <v>0.004125674334950083</v>
+        <v>-0.1456874148670582</v>
       </c>
       <c r="E94">
-        <v>0.3550930130173439</v>
+        <v>0.0561901435443076</v>
       </c>
       <c r="F94">
-        <v>0.4248573392224895</v>
+        <v>0.3547839691532749</v>
       </c>
       <c r="G94">
-        <v>-0.01643183783873685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1731562299222003</v>
+      </c>
+      <c r="H94">
+        <v>-0.07911292536623142</v>
+      </c>
+      <c r="I94">
+        <v>-0.1264416139402902</v>
+      </c>
+      <c r="J94">
+        <v>0.324229946539821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2010787653993714</v>
+        <v>0.1373797858840237</v>
       </c>
       <c r="C95">
-        <v>0.02125734451578865</v>
+        <v>-0.06396272764947156</v>
       </c>
       <c r="D95">
-        <v>0.01064081477160791</v>
+        <v>-0.04479258757993303</v>
       </c>
       <c r="E95">
-        <v>0.4573663704085384</v>
+        <v>-0.02621220384185987</v>
       </c>
       <c r="F95">
-        <v>-0.8159858834343242</v>
+        <v>0.04693399125564988</v>
       </c>
       <c r="G95">
-        <v>0.1091062991640415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.935589897330547</v>
+      </c>
+      <c r="H95">
+        <v>0.04600878450313936</v>
+      </c>
+      <c r="I95">
+        <v>0.04647558556727761</v>
+      </c>
+      <c r="J95">
+        <v>0.201153134398034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2165004679209963</v>
+        <v>0.2054308220631272</v>
       </c>
       <c r="C98">
-        <v>0.1372278892034225</v>
+        <v>0.07463616742895016</v>
       </c>
       <c r="D98">
-        <v>0.02430153298379021</v>
+        <v>-0.0008336701610821538</v>
       </c>
       <c r="E98">
-        <v>-0.1055602847981775</v>
+        <v>-0.1360110571455588</v>
       </c>
       <c r="F98">
-        <v>-0.04597446883641044</v>
+        <v>-0.1348158171288608</v>
       </c>
       <c r="G98">
-        <v>-0.2508620547134617</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04268987989644604</v>
+      </c>
+      <c r="H98">
+        <v>0.3087111236192695</v>
+      </c>
+      <c r="I98">
+        <v>0.2010753348324485</v>
+      </c>
+      <c r="J98">
+        <v>-0.006968812495860373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01859504262678073</v>
+        <v>0.01204096946124249</v>
       </c>
       <c r="C101">
-        <v>-0.01844675936138802</v>
+        <v>-0.02892026454258286</v>
       </c>
       <c r="D101">
-        <v>-0.02440137009416925</v>
+        <v>-0.02574577531168137</v>
       </c>
       <c r="E101">
-        <v>-0.02837620854233973</v>
+        <v>0.007303724559945795</v>
       </c>
       <c r="F101">
-        <v>-0.006829204055552525</v>
+        <v>-0.06642312103694918</v>
       </c>
       <c r="G101">
-        <v>0.03657294297038274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.00953132373158682</v>
+      </c>
+      <c r="H101">
+        <v>-0.1131205020265579</v>
+      </c>
+      <c r="I101">
+        <v>0.01147797779157764</v>
+      </c>
+      <c r="J101">
+        <v>0.1908665646774155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1196611135248171</v>
+        <v>0.1214826467994979</v>
       </c>
       <c r="C102">
-        <v>-0.01249721480802461</v>
+        <v>-0.02911470138411741</v>
       </c>
       <c r="D102">
-        <v>-0.0357366450296664</v>
+        <v>-0.04970667133942359</v>
       </c>
       <c r="E102">
-        <v>0.08844286646955625</v>
+        <v>0.04517003546733867</v>
       </c>
       <c r="F102">
-        <v>0.008186915359969309</v>
+        <v>0.08219669260273331</v>
       </c>
       <c r="G102">
-        <v>2.878953253897196e-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02993619295444145</v>
+      </c>
+      <c r="H102">
+        <v>0.01477502402874248</v>
+      </c>
+      <c r="I102">
+        <v>-0.03704691667150303</v>
+      </c>
+      <c r="J102">
+        <v>-0.04540452795638676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.02021389089884593</v>
+        <v>0.0316384811805356</v>
       </c>
       <c r="C103">
-        <v>-0.0004787118054757832</v>
+        <v>-0.006555616053075794</v>
       </c>
       <c r="D103">
-        <v>-0.01126085787587948</v>
+        <v>-0.01717776236993136</v>
       </c>
       <c r="E103">
-        <v>0.02283798545192127</v>
+        <v>0.02352735570191619</v>
       </c>
       <c r="F103">
-        <v>0.01080873288682133</v>
+        <v>0.0129800452099423</v>
       </c>
       <c r="G103">
-        <v>-0.005989018511279455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01446713629555474</v>
+      </c>
+      <c r="H103">
+        <v>-0.01391731015165467</v>
+      </c>
+      <c r="I103">
+        <v>-0.02862964107953193</v>
+      </c>
+      <c r="J103">
+        <v>-0.01339316702193539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
